--- a/experiment/output/results/OfficeHome/CORAL/DG/2.xlsx
+++ b/experiment/output/results/OfficeHome/CORAL/DG/2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,427 +488,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>250211_00-31-46_resnet50_GENIE</t>
+          <t>250211_07-58-06_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73.31100000000001</v>
+        <v>78.82899999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>72.86</v>
+        <v>78.88500000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>68.074</v>
+        <v>77.872</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250211_05-57-47_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>78.378</v>
-      </c>
-      <c r="E3" t="n">
-        <v>78.09699999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>78.012</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>250210_23-16-15_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>77.646</v>
-      </c>
-      <c r="E4" t="n">
-        <v>77.05500000000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>77.449</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>250210_13-23-36_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>75.732</v>
-      </c>
-      <c r="E5" t="n">
-        <v>75.648</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74.66200000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>250210_20-27-25_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>77.111</v>
-      </c>
-      <c r="E6" t="n">
-        <v>76.914</v>
-      </c>
-      <c r="F6" t="n">
-        <v>76.633</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>250211_07-58-06_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>250210_13-21-31_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>250210_17-31-57_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>78.378</v>
-      </c>
-      <c r="E9" t="n">
-        <v>78.378</v>
-      </c>
-      <c r="F9" t="n">
-        <v>77.309</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>250211_02-19-35_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>77.28</v>
-      </c>
-      <c r="E10" t="n">
-        <v>77.449</v>
-      </c>
-      <c r="F10" t="n">
-        <v>75.619</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>250210_14-30-51_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>77.337</v>
-      </c>
-      <c r="E11" t="n">
-        <v>76.52</v>
-      </c>
-      <c r="F11" t="n">
-        <v>75.22499999999999</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250210_21-58-09_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>77.027</v>
-      </c>
-      <c r="E12" t="n">
-        <v>74.66200000000001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>74.49299999999999</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>250211_04-06-26_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>78.012</v>
-      </c>
-      <c r="E13" t="n">
-        <v>78.66</v>
-      </c>
-      <c r="F13" t="n">
-        <v>77.252</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>250210_19-02-47_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>77.224</v>
-      </c>
-      <c r="E14" t="n">
-        <v>76.32299999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>77.506</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CORAL</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>250210_15-48-42_resnet50_GENIE</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>77.562</v>
-      </c>
-      <c r="E15" t="n">
-        <v>77.562</v>
-      </c>
-      <c r="F15" t="n">
-        <v>77.562</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
